--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BCD/10/seed3/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BCD/10/seed3/result_data_KNN.xlsx
@@ -491,7 +491,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>-12.124</v>
+        <v>-12.74</v>
       </c>
       <c r="D4" t="n">
         <v>-8.23</v>
@@ -572,7 +572,7 @@
         <v>-22.54</v>
       </c>
       <c r="B10" t="n">
-        <v>5.802000000000001</v>
+        <v>5.885</v>
       </c>
       <c r="C10" t="n">
         <v>-12.45</v>
@@ -600,13 +600,13 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>5.76</v>
+        <v>5.356999999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>-12.268</v>
+        <v>-11.659</v>
       </c>
       <c r="D12" t="n">
-        <v>-7.686</v>
+        <v>-7.629</v>
       </c>
     </row>
     <row r="13">
@@ -620,7 +620,7 @@
         <v>-15.83</v>
       </c>
       <c r="D13" t="n">
-        <v>-7.465999999999999</v>
+        <v>-7.923999999999999</v>
       </c>
     </row>
     <row r="14">
@@ -673,7 +673,7 @@
         <v>3.89</v>
       </c>
       <c r="C17" t="n">
-        <v>-13.112</v>
+        <v>-13.36</v>
       </c>
       <c r="D17" t="n">
         <v>-7.82</v>
@@ -684,7 +684,7 @@
         <v>-23.4</v>
       </c>
       <c r="B18" t="n">
-        <v>5.494000000000001</v>
+        <v>5.444</v>
       </c>
       <c r="C18" t="n">
         <v>-15.14</v>
@@ -732,7 +732,7 @@
         <v>-13.13</v>
       </c>
       <c r="D21" t="n">
-        <v>-8.156000000000001</v>
+        <v>-7.931</v>
       </c>
     </row>
     <row r="22">
@@ -799,7 +799,7 @@
         <v>6.56</v>
       </c>
       <c r="C26" t="n">
-        <v>-11.926</v>
+        <v>-12.841</v>
       </c>
       <c r="D26" t="n">
         <v>-9.31</v>
@@ -813,7 +813,7 @@
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-12.874</v>
+        <v>-13.315</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -827,7 +827,7 @@
         <v>5.47</v>
       </c>
       <c r="C28" t="n">
-        <v>-12.228</v>
+        <v>-12.373</v>
       </c>
       <c r="D28" t="n">
         <v>-7.75</v>
@@ -942,7 +942,7 @@
         <v>-10.09</v>
       </c>
       <c r="D36" t="n">
-        <v>-7.086</v>
+        <v>-7.346000000000001</v>
       </c>
     </row>
     <row r="37">
@@ -950,10 +950,10 @@
         <v>-19.97</v>
       </c>
       <c r="B37" t="n">
-        <v>8.356</v>
+        <v>8.398</v>
       </c>
       <c r="C37" t="n">
-        <v>-11.978</v>
+        <v>-11.862</v>
       </c>
       <c r="D37" t="n">
         <v>-7.88</v>
@@ -970,7 +970,7 @@
         <v>-12.46</v>
       </c>
       <c r="D38" t="n">
-        <v>-7.803999999999999</v>
+        <v>-7.771999999999998</v>
       </c>
     </row>
     <row r="39">
@@ -1012,7 +1012,7 @@
         <v>-14.21</v>
       </c>
       <c r="D41" t="n">
-        <v>-8.26</v>
+        <v>-8.275</v>
       </c>
     </row>
     <row r="42">
@@ -1166,7 +1166,7 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-8.282</v>
+        <v>-8.084999999999999</v>
       </c>
     </row>
     <row r="53">
@@ -1202,7 +1202,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>4.888</v>
+        <v>5.129</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1345,7 +1345,7 @@
         <v>6.69</v>
       </c>
       <c r="C65" t="n">
-        <v>-12.934</v>
+        <v>-11.8</v>
       </c>
       <c r="D65" t="n">
         <v>-7.07</v>
@@ -1376,7 +1376,7 @@
         <v>-10.67</v>
       </c>
       <c r="D67" t="n">
-        <v>-8.102</v>
+        <v>-7.709000000000001</v>
       </c>
     </row>
     <row r="68">
@@ -1384,7 +1384,7 @@
         <v>-21.44</v>
       </c>
       <c r="B68" t="n">
-        <v>4.712000000000001</v>
+        <v>4.746</v>
       </c>
       <c r="C68" t="n">
         <v>-9.98</v>
@@ -1457,7 +1457,7 @@
         <v>10.24</v>
       </c>
       <c r="C73" t="n">
-        <v>-11.73</v>
+        <v>-12.177</v>
       </c>
       <c r="D73" t="n">
         <v>-6.42</v>
@@ -1510,7 +1510,7 @@
         <v>-19.89</v>
       </c>
       <c r="B77" t="n">
-        <v>8.050000000000001</v>
+        <v>6.578</v>
       </c>
       <c r="C77" t="n">
         <v>-9.57</v>
@@ -1524,7 +1524,7 @@
         <v>-20.31</v>
       </c>
       <c r="B78" t="n">
-        <v>9.507999999999999</v>
+        <v>8.821999999999999</v>
       </c>
       <c r="C78" t="n">
         <v>-13.33</v>
@@ -1611,7 +1611,7 @@
         <v>4.99</v>
       </c>
       <c r="C84" t="n">
-        <v>-14.45</v>
+        <v>-13.211</v>
       </c>
       <c r="D84" t="n">
         <v>-8.34</v>
@@ -1625,7 +1625,7 @@
         <v>4.31</v>
       </c>
       <c r="C85" t="n">
-        <v>-11</v>
+        <v>-12.09</v>
       </c>
       <c r="D85" t="n">
         <v>-7.87</v>
@@ -1684,7 +1684,7 @@
         <v>-14.65</v>
       </c>
       <c r="D89" t="n">
-        <v>-8.209999999999999</v>
+        <v>-8.038999999999998</v>
       </c>
     </row>
     <row r="90">
@@ -1737,7 +1737,7 @@
         <v>4.28</v>
       </c>
       <c r="C93" t="n">
-        <v>-11.4</v>
+        <v>-10.97</v>
       </c>
       <c r="D93" t="n">
         <v>-5.79</v>
@@ -1765,10 +1765,10 @@
         <v>7.55</v>
       </c>
       <c r="C95" t="n">
-        <v>-12.414</v>
+        <v>-12.166</v>
       </c>
       <c r="D95" t="n">
-        <v>-7.904000000000001</v>
+        <v>-7.624</v>
       </c>
     </row>
     <row r="96">
@@ -1807,7 +1807,7 @@
         <v>5.8</v>
       </c>
       <c r="C98" t="n">
-        <v>-13.782</v>
+        <v>-12.975</v>
       </c>
       <c r="D98" t="n">
         <v>-8.529999999999999</v>
@@ -1821,7 +1821,7 @@
         <v>5.08</v>
       </c>
       <c r="C99" t="n">
-        <v>-11.162</v>
+        <v>-11.299</v>
       </c>
       <c r="D99" t="n">
         <v>-7.59</v>
@@ -1849,7 +1849,7 @@
         <v>8.42</v>
       </c>
       <c r="C101" t="n">
-        <v>-12.254</v>
+        <v>-12.188</v>
       </c>
       <c r="D101" t="n">
         <v>-7.98</v>
@@ -1908,7 +1908,7 @@
         <v>-12</v>
       </c>
       <c r="D105" t="n">
-        <v>-8.296000000000001</v>
+        <v>-7.834000000000001</v>
       </c>
     </row>
   </sheetData>
